--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Monster.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterEntity" sheetId="3" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Monster.xlsx
+++ b/UnlimitedTowerClient/TowerMain/UnlimitedTower/Assets/Resources/ErdExcels/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterEntity" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,54 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불페어리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물페어리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅페어리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불좀비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물좀비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅좀비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불나방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물나방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅나방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATAEND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +124,61 @@
   </si>
   <si>
     <t>plusMultivalPerCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anubis</t>
+  </si>
+  <si>
+    <t>갈고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크자이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크매지션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불에그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅에그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물에그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물카드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -574,16 +581,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -594,16 +601,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -614,13 +621,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -634,13 +641,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -654,13 +661,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -674,13 +681,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -694,13 +701,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -714,13 +721,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -734,13 +741,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -754,13 +761,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -774,13 +781,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -793,13 +800,54 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -834,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -897,7 +945,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -910,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -937,16 +985,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -968,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -982,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -996,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1010,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -1021,7 +1069,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
